--- a/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/bill_of_materials-Water quality-V0.5.1.xlsx
+++ b/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/bill_of_materials-Water quality-V0.5.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/asifuzzaman_sc_edu/Documents/Github Repos/In-Situ-Water-Quality-Sensor/System_development/Jocassee/V0.5.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\In-Situ-Water-Quality-Sensor\System_development\Jocassee\V0.5.1\BIll_Of_Matirials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{B25A7C33-3DB6-4E9E-AD5A-98A1F049AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C83A7C6-1839-4526-A467-1B01FE0D9C0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C5CF2-28A1-428B-9AFB-879C5E403CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
   <si>
     <t>PCB Reference</t>
   </si>
@@ -231,9 +231,6 @@
     <t>https://www.digikey.com/en/products/detail/samtec-inc/SSW-115-01-F-S/7879494?gad_source=1&amp;gad_campaignid=17336967819&amp;gbraid=0AAAAADrbLlhPPMEXoJVxfpFdpEMhcu0YV&amp;gclid=Cj0KCQjwjJrCBhCXARIsAI5x66X6luvpzic7SpeQdTZEq5PP26iV0Bmu3w1zSQ-hOKFa4-GjmDPOJZMaAjkJEALw_wcB&amp;gclsrc=aw.ds</t>
   </si>
   <si>
-    <t>PCB itself</t>
-  </si>
-  <si>
     <t>https://oshpark.com/</t>
   </si>
   <si>
@@ -370,6 +367,12 @@
   </si>
   <si>
     <t>https://www.harborfreight.com/18-in-x-50-ft-paracord-56740.html</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/General-Purpose-Utility-Rope-20TL72</t>
+  </si>
+  <si>
+    <t>PCB</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,6 +1021,7 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1075,10 +1079,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1398,24 +1398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF72E9-9057-43B3-9849-7848ED564DB8}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="61.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="86" customWidth="1"/>
-    <col min="7" max="8" width="46.54296875" customWidth="1"/>
+    <col min="7" max="8" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1455,6 +1455,7 @@
         <v>0.11</v>
       </c>
       <c r="E2" s="8">
+        <f t="shared" ref="E2:E23" si="0">D2*C2</f>
         <v>0.11</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1463,7 +1464,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1477,6 +1478,7 @@
         <v>0.71</v>
       </c>
       <c r="E3" s="8">
+        <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1489,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1503,6 +1505,7 @@
         <v>0.16</v>
       </c>
       <c r="E4" s="8">
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1511,7 +1514,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1525,6 +1528,7 @@
         <v>1.69</v>
       </c>
       <c r="E5" s="8">
+        <f t="shared" si="0"/>
         <v>1.69</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1533,7 +1537,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1547,6 +1551,7 @@
         <v>3.67</v>
       </c>
       <c r="E6" s="8">
+        <f t="shared" si="0"/>
         <v>3.67</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1555,7 +1560,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1569,6 +1574,7 @@
         <v>10.98</v>
       </c>
       <c r="E7" s="8">
+        <f t="shared" si="0"/>
         <v>10.98</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1579,7 +1585,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1593,6 +1599,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1601,7 +1608,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1615,6 +1622,7 @@
         <v>0.13</v>
       </c>
       <c r="E9" s="8">
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -1623,7 +1631,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -1637,6 +1645,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" s="8">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -1645,7 +1654,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1659,6 +1668,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -1667,7 +1677,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1681,6 +1691,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E12" s="8">
+        <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1689,12 +1700,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -1703,10 +1714,11 @@
         <v>46.72</v>
       </c>
       <c r="E13" s="8">
+        <f t="shared" si="0"/>
         <v>46.72</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>43</v>
@@ -1715,7 +1727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1729,6 +1741,7 @@
         <v>26.11</v>
       </c>
       <c r="E14" s="8">
+        <f t="shared" si="0"/>
         <v>26.11</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -1737,7 +1750,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1751,6 +1764,7 @@
         <v>9.9</v>
       </c>
       <c r="E15" s="8">
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1761,7 +1775,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
@@ -1775,6 +1789,7 @@
         <v>49.99</v>
       </c>
       <c r="E16" s="8">
+        <f t="shared" si="0"/>
         <v>49.99</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -1785,7 +1800,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1799,6 +1814,7 @@
         <v>19.95</v>
       </c>
       <c r="E17" s="8">
+        <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -1809,7 +1825,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
@@ -1823,6 +1839,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="E18" s="8">
+        <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -1833,7 +1850,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
@@ -1847,6 +1864,7 @@
         <v>1.25</v>
       </c>
       <c r="E19" s="8">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -1857,7 +1875,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1871,6 +1889,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E20" s="8">
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -1878,12 +1897,12 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1892,20 +1911,21 @@
         <v>8</v>
       </c>
       <c r="E21" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -1914,22 +1934,25 @@
         <v>42</v>
       </c>
       <c r="E22" s="8">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -1938,57 +1961,62 @@
         <v>5.8</v>
       </c>
       <c r="E23" s="8">
+        <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="H23" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>38</v>
+      </c>
+      <c r="E24" s="8">
+        <f>D24*C24</f>
+        <v>38</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>11.24</v>
-      </c>
-      <c r="E24" s="8">
-        <v>11.24</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="C25" s="9"/>
       <c r="D25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="14">
         <f>SUM(E3:E24)</f>
-        <v>247.12000000000003</v>
+        <v>273.88</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2025,15 +2053,16 @@
     <hyperlink ref="F13" r:id="rId31" xr:uid="{1805C191-986C-4725-B6EA-091F14DE101B}"/>
     <hyperlink ref="F23" r:id="rId32" xr:uid="{743A252F-823E-4766-B636-1E5BC14B3CDC}"/>
     <hyperlink ref="G23" r:id="rId33" xr:uid="{4D67FE36-87DC-4527-B1F0-CC9CFBBBB0BC}"/>
-    <hyperlink ref="G24" r:id="rId34" xr:uid="{7D74E17E-046A-41BC-BDA0-EF91BB825A24}"/>
-    <hyperlink ref="F24" r:id="rId35" display="https://www.digikey.com/en/products/detail/atlas-scientific/CHEM-PH-S/16003006?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=23033451739&amp;gbraid=0AAAAADrbLli2XEsCQZ2zgdqvDaP8ZT8-0&amp;gclid=CjwKCAjw3tzHBhBREiwAlMJoUtHQFEOHaOZNh9aVH6VR7LIrpjG4tOYAgYKosI_O4gav5yO-aztHlRoCq9sQAvD_BwE" xr:uid="{A15F7F5C-552E-4B30-B2E3-39161D2283B9}"/>
-    <hyperlink ref="H23" r:id="rId36" xr:uid="{97BF2DE0-0907-46E3-8E2B-330CF8DE55F5}"/>
-    <hyperlink ref="H24" r:id="rId37" xr:uid="{B669C53A-E43D-4BF2-81AB-BE6EF2A0CA12}"/>
-    <hyperlink ref="F22" r:id="rId38" xr:uid="{A67606B2-6A7C-4109-8548-6DC2CA26BD11}"/>
-    <hyperlink ref="G22" r:id="rId39" xr:uid="{9A04DBD6-670C-4365-8CE5-7D9EF3C6F4F2}"/>
+    <hyperlink ref="H23" r:id="rId34" xr:uid="{97BF2DE0-0907-46E3-8E2B-330CF8DE55F5}"/>
+    <hyperlink ref="G22" r:id="rId35" xr:uid="{A67606B2-6A7C-4109-8548-6DC2CA26BD11}"/>
+    <hyperlink ref="H22" r:id="rId36" xr:uid="{9A04DBD6-670C-4365-8CE5-7D9EF3C6F4F2}"/>
+    <hyperlink ref="H24" r:id="rId37" display="https://www.digikey.com/en/products/detail/atlas-scientific/CHEM-PH-S/16003006?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=23033451739&amp;gbraid=0AAAAADrbLli2XEsCQZ2zgdqvDaP8ZT8-0&amp;gclid=CjwKCAjw3tzHBhBREiwAlMJoUtHQFEOHaOZNh9aVH6VR7LIrpjG4tOYAgYKosI_O4gav5yO-aztHlRoCq9sQAvD_BwE" xr:uid="{A2C98465-1495-49D3-978D-922B50A3BBB4}"/>
+    <hyperlink ref="G24" r:id="rId38" display="https://www.dscbalances.com/products/ph-sensor-protect-bottle-10-in-bag?srsltid=AfmBOopmccZQynijm5vo9RKbVMB_JPRNJqYQLrwHuYGu86piXkKum1hi" xr:uid="{1861D382-6B27-43BB-829F-B19532A3ED0B}"/>
+    <hyperlink ref="F24" r:id="rId39" xr:uid="{4CA209E8-AB0F-4F7A-AF30-2798AD7AA2B0}"/>
+    <hyperlink ref="F22" r:id="rId40" xr:uid="{2EBC3449-95C3-4D2D-AD80-B3EA80AACF4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -2045,42 +2074,42 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="22" customWidth="1"/>
-    <col min="3" max="4" width="18.81640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="65.453125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="22" customWidth="1"/>
+    <col min="3" max="4" width="18.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="18" customWidth="1"/>
     <col min="6" max="7" width="58" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="18"/>
+    <col min="8" max="16384" width="8.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -2092,19 +2121,19 @@
         <v>19.559999999999999</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="19">
         <v>69.69</v>
@@ -2113,14 +2142,14 @@
         <v>7.26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -2132,18 +2161,18 @@
         <v>1.47</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="19">
         <v>12</v>
@@ -2155,16 +2184,16 @@
         <v>13.56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="19">
         <v>4</v>
@@ -2176,16 +2205,16 @@
         <v>3.4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="19">
         <v>4</v>
@@ -2197,19 +2226,19 @@
         <v>0.52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="23">
         <v>47.86</v>
@@ -2218,16 +2247,16 @@
         <v>47.86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="24"/>
       <c r="D9" s="25">
         <f>SUM(D2:D8)</f>

--- a/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/bill_of_materials-Water quality-V0.5.1.xlsx
+++ b/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/bill_of_materials-Water quality-V0.5.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\In-Situ-Water-Quality-Sensor\System_development\Jocassee\V0.5.1\BIll_Of_Matirials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/asifuzzaman_sc_edu/Documents/Github Repos/In-Situ-Water-Quality-Sensor/System_development/Jocassee/V0.5.1/BIll_Of_Matirials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C5CF2-28A1-428B-9AFB-879C5E403CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C66C5CF2-28A1-428B-9AFB-879C5E403CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{657A2C6A-CCFA-4E5B-B424-897EC443CD55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3F872AE6-6710-4898-8598-9832416C0361}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics BOM" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,12 +973,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1022,6 +1016,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1401,21 +1402,21 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="61.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
     <col min="6" max="6" width="86" customWidth="1"/>
-    <col min="7" max="8" width="46.5703125" customWidth="1"/>
+    <col min="7" max="8" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1458,13 +1459,13 @@
         <f t="shared" ref="E2:E23" si="0">D2*C2</f>
         <v>0.11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1481,17 +1482,17 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1508,13 +1509,13 @@
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1531,13 +1532,13 @@
         <f t="shared" si="0"/>
         <v>1.69</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1554,13 +1555,13 @@
         <f t="shared" si="0"/>
         <v>3.67</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1577,15 +1578,15 @@
         <f t="shared" si="0"/>
         <v>10.98</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1602,13 +1603,13 @@
         <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1625,13 +1626,13 @@
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -1648,13 +1649,13 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1671,13 +1672,13 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1694,13 +1695,13 @@
         <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
@@ -1717,17 +1718,17 @@
         <f t="shared" si="0"/>
         <v>46.72</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1744,13 +1745,13 @@
         <f t="shared" si="0"/>
         <v>26.11</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1767,15 +1768,15 @@
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
@@ -1792,15 +1793,15 @@
         <f t="shared" si="0"/>
         <v>49.99</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1817,15 +1818,15 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
@@ -1842,15 +1843,15 @@
         <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
@@ -1867,15 +1868,15 @@
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1892,12 +1893,12 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
@@ -1914,13 +1915,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
@@ -1931,23 +1932,23 @@
         <v>1</v>
       </c>
       <c r="D22" s="8">
-        <v>42</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F22" s="26" t="s">
+        <f>D22*C22</f>
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>40</v>
       </c>
@@ -1964,17 +1965,17 @@
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>40</v>
       </c>
@@ -1991,32 +1992,32 @@
         <f>D24*C24</f>
         <v>38</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <f>SUM(E3:E24)</f>
-        <v>273.88</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="26"/>
+        <v>241.35000000000002</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2074,50 +2075,50 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="22" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" style="18" customWidth="1"/>
-    <col min="6" max="7" width="58" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="18"/>
+    <col min="1" max="1" width="35.453125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="20" customWidth="1"/>
+    <col min="3" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="65.453125" style="16" customWidth="1"/>
+    <col min="6" max="7" width="58" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="19">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
         <v>19.559999999999999</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>19.559999999999999</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2128,17 +2129,17 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>69.69</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>7.26</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -2147,17 +2148,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
         <v>1.47</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>1.47</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2170,17 +2171,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>12</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>13.56</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2191,17 +2192,17 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>0.85</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>3.4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2212,17 +2213,17 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>0.13</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>0.52</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2233,17 +2234,17 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>47.86</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>47.86</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2256,13 +2257,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23">
         <f>SUM(D2:D8)</f>
         <v>93.63</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
